--- a/security_changes.xlsx
+++ b/security_changes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,57 +449,154 @@
           <t>Security Hotspot_april</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Security Hotspot Difference</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>195</v>
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>194</v>
+      </c>
+      <c r="C5" t="n">
+        <v>195</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B10" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C10" t="n">
         <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
